--- a/protected/commands/template/month_more_ones.xlsx
+++ b/protected/commands/template/month_more_ones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="12" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="204">
   <si>
     <r>
       <rPr>
@@ -664,756 +664,1016 @@
     <t>新生意情况</t>
   </si>
   <si>
-    <t>新(IA,IB)新服务年生意额增长 （(当月-上月)/上月)</t>
+    <t>傳統服務(IA,IB)新生意年金額增長 （(當月-上月)/上月)</t>
   </si>
   <si>
     <t>2(5)</t>
   </si>
   <si>
-    <t>-20% - -10%     :  1
--10% - 0%   :  2
-0% - 10%   :  3
-10% - 20%   :  4
-&gt; 20% :  5</t>
-  </si>
-  <si>
-    <t>新(IA,IB)服务年生意额同比增长 （(当月-去年当月）/去年当月)</t>
+    <t>-15% ~ -30% : 1
+&lt;0% ~ -14% : 2
+&gt;=0% ~ 8%  : 3
+9% ~ 14%  : 4
+&gt; =15%  : 5</t>
+  </si>
+  <si>
+    <t>傳統服務(IA,IB)新生意年金額橫比增長 （(當月-去年當月）/去年當月)</t>
   </si>
   <si>
     <t>20%(3)</t>
   </si>
   <si>
-    <t>新增(IA,IB)生意合同数目增长（(当月-上月)/上月)</t>
-  </si>
-  <si>
-    <t>-40% - -20%     :  1
--20% - 0%   :  2
-0% - 20%   :  3
-20% - 40%   :  4
-&gt; 40% :  5</t>
-  </si>
-  <si>
-    <t>新(IA,IB)生意合同数目同比增长（(当月-去年当月)/去年当月)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新业务(飘盈香，甲醛，厨房或其他)新年生意金额增长（(当月-上月)/上月)
+    <t>-15% ~ -30% : 1
+&lt;0% ~ -14% : 2
+&gt;=0% ~ 8% : 3
+9% ~ 14% : 4
+&gt; =15% : 5</t>
+  </si>
+  <si>
+    <t>傳統服務(IA,IB)新生意合同數量增長（(當月-上月)/上月)</t>
+  </si>
+  <si>
+    <t>-10% ~ -20% : 1
+4% ~ -9% : 2
+5% ~ 19% : 3
+20% ~ 29% : 4
+&gt; =30% : 5</t>
+  </si>
+  <si>
+    <t>傳統服務(IA,IB)新生意合同數量橫比增長（(當月-去年當月)/去年當月)</t>
+  </si>
+  <si>
+    <t>-10% ~ -20% : 1
+0% ~ -9% : 2
+10% ~ 19% : 3
+20% ~ 29% : 4
+&gt; =30% : 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新興業務(空氣淨化機, 飄盈香，甲醛，廚房或其他)新生意年金額增長 （(當月-上月)/上月)
 </t>
   </si>
   <si>
-    <t>-200% - -100%     :  1
--100% - 0% : 2
-0% - 100% :3
-100% - 300%   :  4
-&gt; 300% :  5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新兴业务(飘盈香，甲醛，厨房或其他)新年生意金额同比增长 （(当月-去年当月)/去年当月)
+    <t>-100% ~ -200% : 1
+&lt;0% ~ -99% : 2
+&gt;=0% ~ 99% : 3
+100% ~ 149% : 4
+&gt;= 150% : 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新興業務(空氣淨化機,飄盈香，甲醛，廚房或其他)新生意年金額橫比增長 （(當月-去年當月)/去年當月)
 </t>
   </si>
   <si>
-    <t>公司年生意额净增长比例（（当月-上月）/上月）</t>
-  </si>
-  <si>
-    <t>公司年生意额净增长同比比例（（当月-去年当月）/去年当月）</t>
+    <t>公司整體生意年金額淨增長比例（（當月-上月）/上月）</t>
+  </si>
+  <si>
+    <t>-10% ~ -20% : 1
+&lt;0% ~ -9% : 2
+&gt;=0% ~ 8% : 3
+9% ~ 14% : 4
+&gt;= 15% : 5</t>
+  </si>
+  <si>
+    <t>公司整體生意淨增長年金額橫比比例（（當月-去年當月）/去年當月）</t>
+  </si>
+  <si>
+    <t>-16% ~ -30% : 1
+&lt;0% ~ -15% : 2
+&gt;=0% ~ 8% : 3
+9% ~ 14% : 4
+&gt;= 15% : 5</t>
   </si>
   <si>
     <t>生意结构比例</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
+    <t>餐飲非餐飲年生意額比例</t>
+  </si>
+  <si>
+    <t>20% ~ 39% : 1
+40% ~ 69% : 2
+70% ~ 99% : 4
+100% ~ 149% : 5
+150% ~ 229% : 3
+&gt;= 230% : 1</t>
+  </si>
+  <si>
+    <t>IA, IB年生意額比例</t>
+  </si>
+  <si>
+    <t>5% ~ 19% : 1
+20% ~ 39% : 2
+40% ~ 59% : 4
+60% ~ 79% : 5
+80% ~ 99% : 3
+&gt;= 100% : 1</t>
+  </si>
+  <si>
+    <t>停单情况</t>
+  </si>
+  <si>
+    <t>停單金額占生意比例% （當月停單總月金額/當月生意額）</t>
+  </si>
+  <si>
+    <t>0% ~ 0.8% : 5
+0.9% ~ 1.9% : 4
+2.0% ~ 2.8% : 3
+2.9% ~ 3.8% : 2
+&gt;= 3.9% : 1</t>
+  </si>
+  <si>
+    <t>外勤部</t>
+  </si>
+  <si>
+    <t>技术员生产力</t>
+  </si>
+  <si>
+    <t>上月技術員平均生意額超出標準門欄比例 （標準：130000/月， 當地平均技術員生意額 - 標準生意額 / 標準生意額 ），主管/主任級別以下技術員</t>
+  </si>
+  <si>
+    <t>&gt;=20% : 5
+0% ~ 19% : 4
+-9% ~ -1% : 3
+-19% ~ -10% : 2
+-29% ~ -20% : 1
+&lt; -30% : 0</t>
+  </si>
+  <si>
+    <t>上月技術員最高生意額技術員金額跟標準比較  （標準：130000/月)</t>
+  </si>
+  <si>
+    <t>35%(4)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>&gt;=70% : 5
+30% - 69% : 4
+10% - 29%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>餐饮非餐饮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>上月技術員最低生意額技術員金額</t>
+  </si>
+  <si>
+    <t>僅供參考，不計算分數</t>
+  </si>
+  <si>
+    <t>技术员成本</t>
+  </si>
+  <si>
+    <t>技術員用料比例 清潔（技術員領貨金額/當月生意額）</t>
+  </si>
+  <si>
+    <t>23%(2)</t>
+  </si>
+  <si>
+    <t>&lt;=10% : 5
+11% ~ 15% : 4
+16% ~ 20% : 3
+21% ~ 25% : 2
+26% ~ 30% : 1
+&gt;31% : 0</t>
+  </si>
+  <si>
+    <t>技術員用料比例 滅蟲（技術員領貨金額/當月生意額）</t>
+  </si>
+  <si>
+    <t>15%(2)</t>
+  </si>
+  <si>
+    <t>&lt;=5% : 5
+6% ~ 10% : 4
+11% ~ 15% : 3
+16% ~ 20% : 2
+21% ~ 25% : 1
+&gt;26% : 0</t>
+  </si>
+  <si>
+    <t>获奖情况</t>
+  </si>
+  <si>
+    <t>當月錦旗獲獎數目占整體技術員比例 （錦旗數目/整體技術員數目）</t>
+  </si>
+  <si>
+    <t>12%(3)</t>
+  </si>
+  <si>
+    <t>&gt;20% : 5
+10% ~ 19% : 3
+1% ~ 9% : 1
+&lt;=0% : 0</t>
+  </si>
+  <si>
+    <t>當月襟章頒發明細 （P:N) P為受頒技術員數目，N為襟章發放數目</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>财政状况</t>
+  </si>
+  <si>
+    <t>毛利率 （當月生意額 - 材料訂購 - 技術員工資）/當月生意額</t>
+  </si>
+  <si>
+    <t>35%(1)</t>
+  </si>
+  <si>
+    <t>&gt;=55% : 5
+50% ~ 54% : 4
+45% ~ 49% : 3
+40% ~ 44% : 2
+36% ~ 39% : 1
+&lt;=35% : 0</t>
+  </si>
+  <si>
+    <t>工資占生意額比例</t>
+  </si>
+  <si>
+    <t>28%(3)</t>
+  </si>
+  <si>
+    <t>20% ~ 24% : 5
+25% ~ 34% : 4
+35% ~ 39% : 3
+40% ~ 49% : 2
+&gt;50% : 1</t>
+  </si>
+  <si>
+    <t>收款情况</t>
+  </si>
+  <si>
+    <t>收款效率（當月收款額/上月生意額）</t>
+  </si>
+  <si>
+    <t>92%(3)</t>
+  </si>
+  <si>
+    <t>&gt; =100% : 5
+95% ~ 99% : 4
+90% ~ 94% : 3
+85% ~ 89% : 2
+80% ~ 84% : 1</t>
+  </si>
+  <si>
+    <t>公司累積結餘（到每月最後一天止）</t>
+  </si>
+  <si>
+    <t>应收未收帐情况</t>
+  </si>
+  <si>
+    <t>問題客人（超過90天沒有結款）比例
+(問題客戶總月費金額/當月生意額）</t>
+  </si>
+  <si>
+    <t>50%(3)</t>
+  </si>
+  <si>
+    <t>&lt;= 30% : 5
+31% ~ 40% : 4
+41% ~ 50% :3
+51% ~ 60% : 2
+61% ~ 70% : 1</t>
+  </si>
+  <si>
+    <t>营运部</t>
+  </si>
+  <si>
+    <t>整体情况</t>
+  </si>
+  <si>
+    <t>新合同7天內安排首次比例 （成功7天首次客戶數目/整體當月新合同數目）</t>
+  </si>
+  <si>
+    <t>88%(3)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">95% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>新生意年生意额比例
-20% - 40%           （2：8和3：7之间）
-40% - 70%         （3：7和4：6之间）
-70% - 100%       （4：6和 5：5之间）
-100% - 150%    （5：5 和 6：4之间）
-150% - 230%    （6 ： 4 和 7：3之间）
-&gt;230%                 （7：3以上）</t>
-    </r>
-  </si>
-  <si>
-    <t>20% - 40%     :  1
-40% - 70%   :  2
-70% - 100%   :  4
-100% - 150%   :  5
-150% - 230% : 3
-&gt; 230% :  1</t>
-  </si>
-  <si>
-    <t>当月IA, IB年生意额比例
-20% - 40%           （2：8和3：7之间）
-40% - 70%         （3：7和4：6之间）
-70% - 100%       （4：6和 5：5之间）
-100% - 150%    （5：5 和 6：4之间）
-150% - 230%    （6 ： 4 和 7：3之间）
-&gt;230%                 （7：3以上）</t>
-  </si>
-  <si>
-    <t>停单情况</t>
-  </si>
-  <si>
-    <t>停单金额占生意比例% （当月停单总月金额/当月生意额）</t>
-  </si>
-  <si>
-    <t>0% - 0.8% : 5
-0.8% - 1.6% : 4
-1.6% - 2.4% : 3
-2.4% - 3.2% : 2
-X &gt; 3.2% : 1</t>
-  </si>
-  <si>
-    <t>外勤部</t>
-  </si>
-  <si>
-    <t>技术员生产力</t>
-  </si>
-  <si>
-    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
-  </si>
-  <si>
-    <t>&gt;20% : 5
-0% - 10% : 4
--10% - 0% : 3
--20% - -10% : 2
-'-30% - -20% : 1
-&lt; -30% : 0</t>
-  </si>
-  <si>
-    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
-  </si>
-  <si>
-    <t>35%(4)</t>
-  </si>
-  <si>
-    <t>&gt;70% : 5
-30% - 70% : 4
-10% - 30% ： 3</t>
-  </si>
-  <si>
-    <t>上月技术员最高生意额技术员金额</t>
-  </si>
-  <si>
-    <t>仅供参考，不计算分数</t>
-  </si>
-  <si>
-    <t>技术员成本</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+90% ~ 94% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>技术员用料比例 清洁（技术员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 4
+85% ~ 89% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>IA领货金额/当月IA生意额）</t>
-    </r>
-  </si>
-  <si>
-    <t>23%(2)</t>
-  </si>
-  <si>
-    <t>&lt;10% : 5
-10% - 15% : 4
-15% - 20% : 3
-20% - 25% : 2
-25% - 30% : 1
-&gt;30% : 0</t>
-  </si>
-  <si>
-    <t>技术员用料比例 灭虫（技术员IB领货金额/当月IB生意额）</t>
-  </si>
-  <si>
-    <t>15%(2)</t>
-  </si>
-  <si>
-    <t>&lt;5% : 5
-5% - 10% : 4
-10% - 15% : 3
-15% - 20% : 2
-20% - 25% : 1
-&gt;25% : 0</t>
-  </si>
-  <si>
-    <t>获奖情况</t>
-  </si>
-  <si>
-    <t>当月锦旗获奖数目占整体技术员比例 （锦旗数目/整体技术员数目）</t>
-  </si>
-  <si>
-    <t>12%(3)</t>
-  </si>
-  <si>
-    <t>&gt;20% : 5
-10% - 20% : 3
-5% - 10% : 1
-&lt;=0% : 0</t>
-  </si>
-  <si>
-    <t>当月襟章颁发明细 （P:N) P为受颁技术员数目，N为襟章发放数目</t>
-  </si>
-  <si>
-    <t>财务部</t>
-  </si>
-  <si>
-    <t>财政状况</t>
-  </si>
-  <si>
-    <t>IA,IB毛利率 （当月IA,IB生意额 - 材料订购 - 技术员工资）/当月IA,IB生意额</t>
-  </si>
-  <si>
-    <t>35%(1)</t>
-  </si>
-  <si>
-    <t>&gt;55% : 5
-50% - 55% : 4
-45% - 50%% : 3
-40% - 45% : 2
-35% - 40% : 1
-&lt;35% : 0</t>
-  </si>
-  <si>
-    <t>工资占生意额比例</t>
-  </si>
-  <si>
-    <t>28%(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% - 25% : 5
-25% - 28% : 4
-28% - 30% : 3
-30% - 35% : 2
-&gt;35% : 1
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+80% ~ 84% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+75% ~ 79% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;75% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>物流情况</t>
+  </si>
+  <si>
+    <t>運送皂液準確度 （實際送皂液/應送皂液）</t>
+  </si>
+  <si>
+    <t>99%(5)</t>
+  </si>
+  <si>
+    <t>運送銷售貨品準確度 （實際送銷售貨品/應送銷售貨品）</t>
+  </si>
+  <si>
+    <t>85%(3)</t>
+  </si>
+  <si>
+    <t>汽車支出平均 （C:M)
+ C : 車輛數目，M：車的平均用油量</t>
+  </si>
+  <si>
+    <t>仓库情况</t>
+  </si>
+  <si>
+    <t>每月盤點準確度</t>
+  </si>
+  <si>
+    <t>96%(5)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">&gt;=108% : 0
+104% ~ 107% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+101% ~103% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+96% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+92% ~ 95% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+88% ~ 91% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <t>新合同5天內安排安裝比例 （成功5天安裝客戶數目/整體當月新合同數目）</t>
+  </si>
+  <si>
+    <t>80%(2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">96% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+91% ~ 95% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 4
+86% ~ 90% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+81% ~ 85% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+76% ~ 80% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;= 75% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>质检情况</t>
+  </si>
+  <si>
+    <t>當月質檢客戶數量效率 （跟標準每月客戶拜訪數目比較）
+（估計客戶每個約4000/月，當地服務客戶金額/客戶金額估值=客戶約數量，客戶約數量除6（希望每12個月拜訪客戶一次），等於標準每月客戶拜訪數目）</t>
+  </si>
+  <si>
+    <t>33%(2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>&gt;=90% : 5
+70% ~ 89% :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">４
 </t>
-  </si>
-  <si>
-    <t>收款情况</t>
-  </si>
-  <si>
-    <t>收款效率（当月收款额/上月生意额）</t>
-  </si>
-  <si>
-    <t>92%(3)</t>
-  </si>
-  <si>
-    <t>&gt; 100% : 5
-95% - 100% : 4
-90% - 95% : 3
-85% - 90% : 2
-80% - 85% : 1</t>
-  </si>
-  <si>
-    <t>公司累积结余（到每月最后一天止）</t>
-  </si>
-  <si>
-    <t>应收未收帐情况</t>
-  </si>
-  <si>
-    <t>问题客人（超过90天没有结款）比例
-(问题客户总月费金额/当月生意额）</t>
-  </si>
-  <si>
-    <t>50%(3)</t>
-  </si>
-  <si>
-    <t>&lt;= 30% : 5
-30% - 40% : 4
-40% - 50% :３
-50% - 60% : 2
-60% - 70% : 1</t>
-  </si>
-  <si>
-    <t>营运部</t>
-  </si>
-  <si>
-    <t>整体情况</t>
-  </si>
-  <si>
-    <t>新合同7天内安排首次比例 （成功7天首次客户数目/整体当月新IA,IB合同数目）</t>
-  </si>
-  <si>
-    <t>88%(3)</t>
-  </si>
-  <si>
-    <t>95% - 100% ： 5
-90% - 95% ： 4
-85% - 90% ： 3
-80% - 85% ： 2
-75% - 80% ： 1
-&lt;75% : 0</t>
-  </si>
-  <si>
-    <t>物流情况</t>
-  </si>
-  <si>
-    <t>运送皂液准确度 （实际送皂液/应送皂液）</t>
-  </si>
-  <si>
-    <t>99%(5)</t>
-  </si>
-  <si>
-    <t>运送销售货品准确度 （实际送销售货品/应送销售货品）</t>
-  </si>
-  <si>
-    <t>85%(3)</t>
-  </si>
-  <si>
-    <t>汽车支出平均 （C:M)
- C : 车辆数目，M：车的平均用油量</t>
-  </si>
-  <si>
-    <t>仓库情况</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每月盘点准确度
-</t>
-  </si>
-  <si>
-    <t>96%(5)</t>
-  </si>
-  <si>
-    <t>&gt;108% : 0
-104% - 108% ： 1
-100% -104% ： 3
-96% - 100% ： 5
-92% - 96% ： 3
-88% - 92% ： 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>50% ~ 69% : 3
+30% ~ 49% : 2
+10% ~ 29% : 1
+&lt;9% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>質檢問題客戶數量比例 
+（問題客戶 ： 質檢拜訪客戶分數低於70分。問題客戶/當月質檢拜訪客戶 = 質檢問題客戶數量比例）</t>
+  </si>
+  <si>
+    <t>12%(5)</t>
+  </si>
+  <si>
+    <t>&gt;20% : 3
+10% ~ 19% : 5
+0% ~ 9% : 1</t>
+  </si>
+  <si>
+    <t>表現滿意技術員 (質檢拜訪表平均分數最高同事）</t>
+  </si>
+  <si>
+    <t>刘秀航</t>
+  </si>
+  <si>
+    <t>客诉处理</t>
+  </si>
+  <si>
+    <t>當月客訴數目比較（當月客訴數目 - 上月客訴數目 / 上月客訴數目）</t>
+  </si>
+  <si>
+    <t>4%（1）</t>
+  </si>
+  <si>
+    <t>&lt; -15% : 5
+-10% ~ -14% : 4
+-5% ~ -9% : 3
+-1% ~ -4% : 2
+5% ~ 0% : 1
+&gt;=6% : 0</t>
+  </si>
+  <si>
+    <t>客訴解決效率（高效客訴數目 = 2工作天內處理完成客訴數量）
+（客訴解決效率 = 高效客訴解決數目/當月客訴數目）</t>
+  </si>
+  <si>
+    <t>54%(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">95% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>新合同5天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+90% ~ 94% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 4
+85% ~ 89% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>安排安</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+80% ~ 84% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+75% ~ 79% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>比例 （成功5天安</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;74% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>主任跟投訴技術員面談比例 
+（主任/組長面談客訴技術員數目/客訴數目）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">8% ~10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+6% ~ 7% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+4% ~ 5% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>户数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目/今月新IA需安装服务合同数目）</t>
-    </r>
-  </si>
-  <si>
-    <t>80%(2)</t>
-  </si>
-  <si>
-    <t>95% - 100% ： 5
-90% - 95% ： 4
-85% - 90% ： 3
-80% - 85% ： 2
-75% - 80% ： 1
-&lt;= 75% : 0</t>
-  </si>
-  <si>
-    <t>质检情况</t>
-  </si>
-  <si>
-    <t>当月质检客户数量效率 （跟标准每月客户拜访数目比较）
-（估计客户每个约￥1500/月，当地服务客户金额/客户金额估值=客户约数量，客户约数量除6（希望每12个月拜访客户一次），等于标准每月客户拜访数目）</t>
-  </si>
-  <si>
-    <t>33%(2)</t>
-  </si>
-  <si>
-    <t>&gt;90% : 5
-70% - 90% :４
-50% - 70% : 3
-30% - 50% : 2
-10% - 30% : 1
-&lt;= 10% : 0</t>
-  </si>
-  <si>
-    <t>质检问题客户数量比例 
-（问题客户 ： 质检拜访客户分数低于70分。问题客户/当月质检拜访客户 = 质检问题客户数量比例）</t>
-  </si>
-  <si>
-    <t>12%(5)</t>
-  </si>
-  <si>
-    <t>&gt;20% : 3
-10% - 20% : 5
-0% - 10% : 1</t>
-  </si>
-  <si>
-    <t>表现满意技术员 (质检拜访表平均分数最高同事）</t>
-  </si>
-  <si>
-    <t>刘秀航</t>
-  </si>
-  <si>
-    <t>客诉处理</t>
-  </si>
-  <si>
-    <t>当月客诉数目比较（当月客诉数目 - 上月客诉数目 / 上月客诉数目）</t>
-  </si>
-  <si>
-    <t>4%（1）</t>
-  </si>
-  <si>
-    <t>&lt;-30% : 5
--30% - -20% : 4
--20% - -10% : 3
--10% - 0% : 2
-0% - 5% : 1
-&gt;5% : 0</t>
-  </si>
-  <si>
-    <t>客诉解决效率（高效客诉数目 = 2工作天内处理完成客诉数量）
-（客诉解决效率 = 高效客诉解决数目/当月客诉数目）</t>
-  </si>
-  <si>
-    <t>54%(0)</t>
-  </si>
-  <si>
-    <t>队长跟投诉技术员面谈比例 
-（队长/组长面谈客诉技术员数目/客诉数目）</t>
-  </si>
-  <si>
-    <t>15% - 20% ： 5
-10% - 15% ： 3
-5% - 10% ： 1
-&lt;5% : 0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>率 （高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> = 客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>诉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后7天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内电话</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目）
-（高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>率=高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>今月客诉数目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;3% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>高效回訪率 （高效回訪 = 客訴後7天內電話客戶回訪數目）
+（高效回訪率=高效回訪/當月解決客訴數目）</t>
+  </si>
+  <si>
+    <t>問題客戶需要主任組長跟進數目</t>
   </si>
   <si>
     <t>人事部</t>
   </si>
   <si>
-    <t>所有同事劳动合同进展 (超过一个月没有签署劳动合同同事数目（张））</t>
+    <t>所有同事勞動合同進展 (超過一個月沒有簽署勞動合同同事數目（張））</t>
   </si>
   <si>
     <t>2（4）</t>
   </si>
   <si>
     <t>0 : 5
-1 - 3 : 4
-3 - 5 : 3
-&gt;5 : 0</t>
+1 ~ 3 : 4
+4 ~ 5 : 3
+&gt;6 : 0</t>
   </si>
   <si>
     <t>销售人员情况</t>
   </si>
   <si>
-    <t>销售人员流失率 （工作满一个月的）（离职销售人员/当月所有销售人员）</t>
-  </si>
-  <si>
-    <t>0% - 10% : 5
-10% - 20% : 3
-20% - 30% : 1
-&gt;30% : 0</t>
-  </si>
-  <si>
-    <t>销售区域空置率（公共区域/销售划分区域）</t>
+    <t>銷售人員流失率 （工作滿一個月的）（離職銷售人員/當月所有銷售人員）</t>
+  </si>
+  <si>
+    <t>0% ~ 10% : 5
+11% ~ 20% : 3
+21% ~ 30% : 1
+&gt;31% : 0</t>
+  </si>
+  <si>
+    <t>銷售區域空置率（公共區域/銷售劃分區域）</t>
   </si>
   <si>
     <t>30%（3）</t>
   </si>
   <si>
-    <t>0% - 20%     :  5
-20% - 60%   :  3
-60%  - 100% :  1</t>
+    <t>0% ~ 20%     :  5
+21% ~ 60%   :  3
+61%  ~ 100% :  1</t>
   </si>
   <si>
     <t>外勤人员情况</t>
   </si>
   <si>
-    <t>离职技术员（工作满一个月的）人数% （当月离职技术人员/整体外勤技术人员）</t>
+    <t>離職技術員（工作滿一個月的）人數% （當月離職技術人員/整體外勤技術人員）</t>
   </si>
   <si>
     <t>8%（3）</t>
   </si>
   <si>
-    <t>0% - 5% : 5
-5% - 10% : 3
-10% - 15% : 1
-&gt;15% : 0</t>
-  </si>
-  <si>
-    <t>队长数目跟标准比例 （最多每5个技术员，就要有一个队长的设置) 
-(技术员数目/6=标准队长数目， 比例 = 队长数目/标准队长数目）</t>
-  </si>
-  <si>
-    <t>&gt;100% : 5
-80% - 100% : 3
+    <t>0% ~ 5% : 5
+6% ~ 10% : 3
+11% ~ 15% : 1
+&gt;16% : 0</t>
+  </si>
+  <si>
+    <t>組長數目跟標準比例 （最多每10個技術員，就要有一個組長的設置) 
+(技術員數目/10=標準組長數目， 比例 = 主管數目/標準主任長數目）</t>
+  </si>
+  <si>
+    <t>&gt;=100% : 5
+81% ~ 99% : 3
 &lt;= 80% : 1</t>
   </si>
   <si>
-    <t>组长数目跟标准比例 （最多每30个技术员，就要有一个组长的设置) 
-(技术员数目/30=标准组长数目， 比例 = 组长数目/标准数目）</t>
-  </si>
-  <si>
-    <t>新招技术员人数</t>
+    <t>主任數目跟標準比例 （最多每20個技術員，就要有一個主任的設置) 
+(技術員數目/20=標準組長數目， 比例 = 組長數目/標準數目）</t>
+  </si>
+  <si>
+    <t>&gt;=100% : 5
+81% ~ 100% : 3
+&lt;= 80% : 1</t>
+  </si>
+  <si>
+    <t>新招技術員人數</t>
   </si>
   <si>
     <t>办公室人员情况</t>
   </si>
   <si>
-    <t>离职办公室（工作满一个月的）人数% （当月离职办公室人员/整体办公室人员）</t>
+    <t>離職辦公室（工作滿一個月的）人數% （當月離職辦公室人員/整體辦公室人員）</t>
   </si>
 </sst>
 </file>
@@ -1423,12 +1683,12 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1494,6 +1754,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
@@ -1501,8 +1773,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1516,8 +1803,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1531,7 +1819,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1551,14 +1909,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1570,20 +1923,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1594,31 +1937,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1629,46 +1948,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1691,8 +1970,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1736,7 +2014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,7 +2044,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1760,31 +2140,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,37 +2188,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,25 +2206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,79 +2224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,19 +2236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2076,17 +2354,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2108,29 +2410,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
       </top>
       <bottom style="double">
-        <color indexed="62"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2145,31 +2429,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2177,10 +2455,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="62"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2213,236 +2491,236 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2548,168 +2826,177 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="13" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="13" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2728,11 +3015,8 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -2742,10 +3026,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2777,26 +3061,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3171,8 +3455,8 @@
   <sheetPr/>
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F76" sqref="D76:D124 F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3805,7 +4089,7 @@
       </c>
       <c r="D75" s="20"/>
     </row>
-    <row r="76" s="2" customFormat="1" ht="82.5" spans="1:4">
+    <row r="76" s="2" customFormat="1" ht="75" spans="1:4">
       <c r="A76" s="34" t="s">
         <v>81</v>
       </c>
@@ -3815,11 +4099,11 @@
       <c r="C76" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="95" t="s">
+      <c r="D76" s="98" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="82.5" spans="1:4">
+    <row r="77" s="2" customFormat="1" ht="75" spans="1:4">
       <c r="A77" s="34"/>
       <c r="B77" s="35" t="s">
         <v>85</v>
@@ -3827,125 +4111,125 @@
       <c r="C77" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D77" s="95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D77" s="98" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="75" spans="1:4">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D78" s="96" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D78" s="98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="75" spans="1:4">
       <c r="A79" s="34"/>
       <c r="B79" s="38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C79" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="96" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D79" s="98" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" ht="75" spans="1:4">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C80" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D80" s="96" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D80" s="98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="75" spans="1:4">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C81" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D81" s="96" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D81" s="98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="75" spans="1:4">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C82" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D82" s="98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="75" spans="1:4">
       <c r="A83" s="34"/>
       <c r="B83" s="38" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C83" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D83" s="95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="115.5" spans="1:4">
-      <c r="A84" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="41" t="s">
-        <v>96</v>
+      <c r="D83" s="98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="90" spans="1:4">
+      <c r="A84" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="C84" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D84" s="39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="115.5" spans="1:4">
-      <c r="A85" s="40"/>
-      <c r="B85" s="41" t="s">
-        <v>98</v>
+      <c r="D84" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="90" spans="1:4">
+      <c r="A85" s="39"/>
+      <c r="B85" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="C85" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D85" s="39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D85" s="41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="75" spans="1:4">
       <c r="A86" s="42" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C86" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D86" s="39" t="s">
-        <v>101</v>
+      <c r="D86" s="41" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A87" s="43" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B87" s="44"/>
       <c r="C87" s="45">
@@ -3953,1114 +4237,1114 @@
       </c>
       <c r="D87" s="46"/>
     </row>
-    <row r="88" s="2" customFormat="1" ht="99" spans="1:4">
+    <row r="88" s="2" customFormat="1" ht="90" spans="1:4">
       <c r="A88" s="47" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C88" s="49" t="s">
         <v>86</v>
       </c>
       <c r="D88" s="50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="49.5" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="46.5" spans="1:4">
       <c r="A89" s="47"/>
       <c r="B89" s="48" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C89" s="49" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D89" s="50" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" ht="33" spans="1:4">
       <c r="A90" s="47"/>
       <c r="B90" s="48" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C90" s="51" t="str">
         <f>B21</f>
         <v>当月最高技术员生意金额</v>
       </c>
-      <c r="D90" s="50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="99" spans="1:4">
+      <c r="D90" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="90" spans="1:4">
       <c r="A91" s="47" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C91" s="49" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="99" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="90" spans="1:4">
       <c r="A92" s="47"/>
       <c r="B92" s="48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C92" s="49" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D92" s="50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="66" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="60" spans="1:4">
       <c r="A93" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="D93" s="54" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="B93" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" s="55" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" ht="33" spans="1:4">
       <c r="A94" s="47"/>
-      <c r="B94" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C94" s="55">
+      <c r="B94" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="56">
         <v>0.216666666666667</v>
       </c>
-      <c r="D94" s="50" t="s">
-        <v>110</v>
+      <c r="D94" s="52" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A95" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" s="56"/>
+        <v>128</v>
+      </c>
+      <c r="B95" s="44"/>
       <c r="C95" s="57"/>
       <c r="D95" s="58"/>
     </row>
-    <row r="96" s="2" customFormat="1" ht="99" spans="1:4">
+    <row r="96" s="2" customFormat="1" ht="90" spans="1:4">
       <c r="A96" s="59" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B96" s="60" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C96" s="61" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D96" s="62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="99" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="75" spans="1:4">
       <c r="A97" s="59"/>
       <c r="B97" s="60" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C97" s="61" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D97" s="62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="82.5" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="75" spans="1:4">
       <c r="A98" s="59" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B98" s="60" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C98" s="63" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D98" s="64" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:4">
       <c r="A99" s="59"/>
       <c r="B99" s="65" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C99" s="63" t="str">
         <f>B29</f>
         <v>上月底公司累计结余</v>
       </c>
-      <c r="D99" s="64" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D99" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="75" spans="1:4">
       <c r="A100" s="59" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B100" s="65" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C100" s="61" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D100" s="62" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A101" s="43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B101" s="44"/>
-      <c r="C101" s="66">
+      <c r="C101" s="67">
         <v>11.73</v>
       </c>
-      <c r="D101" s="67"/>
-    </row>
-    <row r="102" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A102" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="B102" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="C102" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D102" s="71" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A103" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="B103" s="69" t="s">
+      <c r="D101" s="68"/>
+    </row>
+    <row r="102" s="3" customFormat="1" ht="97.5" spans="1:4">
+      <c r="A102" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="C103" s="70" t="s">
+      <c r="B102" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="D103" s="71" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A104" s="68"/>
-      <c r="B104" s="69" t="s">
+      <c r="C102" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C104" s="70" t="s">
+      <c r="D102" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="D104" s="71" t="s">
-        <v>144</v>
+    </row>
+    <row r="103" s="3" customFormat="1" ht="97.5" spans="1:4">
+      <c r="A103" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103" s="72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" s="3" customFormat="1" ht="97.5" spans="1:4">
+      <c r="A104" s="69"/>
+      <c r="B104" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" s="72" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1" ht="33" spans="1:4">
-      <c r="A105" s="68"/>
-      <c r="B105" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="C105" s="73">
+      <c r="A105" s="69"/>
+      <c r="B105" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" s="74">
         <v>1.43055555555556</v>
       </c>
-      <c r="D105" s="74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A106" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="B106" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="C106" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D106" s="74" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A107" s="68"/>
-      <c r="B107" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="C107" s="75" t="s">
+      <c r="D105" s="75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" s="3" customFormat="1" ht="97.5" spans="1:4">
+      <c r="A106" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="D107" s="71" t="s">
+      <c r="B106" s="70" t="s">
         <v>157</v>
       </c>
+      <c r="C106" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D106" s="77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" s="3" customFormat="1" ht="97.5" spans="1:4">
+      <c r="A107" s="69"/>
+      <c r="B107" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C107" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" s="72" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="108" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A108" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="B108" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="C108" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="D108" s="71" t="s">
-        <v>161</v>
+      <c r="A108" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C108" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" s="72" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="109" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A109" s="68"/>
-      <c r="B109" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="C109" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="D109" s="71" t="s">
-        <v>164</v>
+      <c r="A109" s="69"/>
+      <c r="B109" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D109" s="72" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="110" s="2" customFormat="1" ht="33" spans="1:4">
-      <c r="A110" s="68"/>
-      <c r="B110" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="C110" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="D110" s="71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A111" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B111" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="C111" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="D111" s="71" t="s">
+      <c r="A110" s="69"/>
+      <c r="B110" s="73" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A112" s="68"/>
-      <c r="B112" s="69" t="s">
+      <c r="C110" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="C112" s="70" t="s">
+      <c r="D110" s="78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" s="2" customFormat="1" ht="90" spans="1:4">
+      <c r="A111" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="D112" s="71" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="113" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A113" s="68"/>
-      <c r="B113" s="72" t="s">
+      <c r="B111" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="C113" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D113" s="71" t="s">
+      <c r="C111" s="71" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="114" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A114" s="68"/>
-      <c r="B114" s="69" t="s">
+      <c r="D111" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="C114" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D114" s="71" t="s">
-        <v>144</v>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="97.5" spans="1:4">
+      <c r="A112" s="69"/>
+      <c r="B112" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="C112" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D112" s="72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" s="2" customFormat="1" ht="64.5" spans="1:4">
+      <c r="A113" s="69"/>
+      <c r="B113" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C113" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D113" s="72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" s="2" customFormat="1" ht="97.5" spans="1:4">
+      <c r="A114" s="69"/>
+      <c r="B114" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C114" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D114" s="72" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:4">
-      <c r="A115" s="68"/>
-      <c r="B115" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C115" s="73">
+      <c r="A115" s="69"/>
+      <c r="B115" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="C115" s="74">
         <v>5</v>
       </c>
-      <c r="D115" s="74" t="s">
-        <v>110</v>
+      <c r="D115" s="75" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A116" s="43" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B116" s="44"/>
-      <c r="C116" s="66">
+      <c r="C116" s="67">
         <v>34</v>
       </c>
-      <c r="D116" s="67"/>
-    </row>
-    <row r="117" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A117" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="B117" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="C117" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="D117" s="79" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="118" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A118" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B118" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="C118" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="D118" s="81" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="49.5" spans="1:4">
-      <c r="A119" s="76"/>
-      <c r="B119" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="C119" s="80" t="s">
+      <c r="D116" s="68"/>
+    </row>
+    <row r="117" s="2" customFormat="1" ht="60" spans="1:4">
+      <c r="A117" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B117" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="D119" s="79" t="s">
+      <c r="C117" s="82" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="120" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A120" s="82" t="s">
+      <c r="D117" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="B120" s="83" t="s">
+    </row>
+    <row r="118" s="2" customFormat="1" ht="60" spans="1:4">
+      <c r="A118" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="C120" s="84" t="s">
+      <c r="B118" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="D120" s="81" t="s">
+      <c r="C118" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="85" t="s">
         <v>189</v>
       </c>
     </row>
+    <row r="119" s="2" customFormat="1" ht="45" spans="1:4">
+      <c r="A119" s="80"/>
+      <c r="B119" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="C119" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D119" s="83" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="60" spans="1:4">
+      <c r="A120" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="B120" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" s="85" t="s">
+        <v>196</v>
+      </c>
+    </row>
     <row r="121" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A121" s="82"/>
-      <c r="B121" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="C121" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="D121" s="81" t="s">
-        <v>191</v>
+      <c r="A121" s="86"/>
+      <c r="B121" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D121" s="85" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="122" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A122" s="82"/>
-      <c r="B122" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="C122" s="78" t="s">
-        <v>143</v>
-      </c>
-      <c r="D122" s="81" t="s">
-        <v>191</v>
+      <c r="A122" s="86"/>
+      <c r="B122" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="C122" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="D122" s="85" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A123" s="82"/>
-      <c r="B123" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="C123" s="78"/>
-      <c r="D123" s="81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="124" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A124" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="B124" s="86" t="s">
-        <v>195</v>
-      </c>
-      <c r="C124" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="D124" s="88" t="s">
-        <v>182</v>
+      <c r="A123" s="86"/>
+      <c r="B123" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="C123" s="82"/>
+      <c r="D123" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="60" spans="1:4">
+      <c r="A124" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="B124" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" s="85" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:4">
       <c r="A125" s="4"/>
-      <c r="B125" s="89"/>
-      <c r="C125" s="90"/>
-      <c r="D125" s="91"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="93"/>
+      <c r="D125" s="94"/>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:4">
       <c r="A126" s="4"/>
-      <c r="B126" s="89"/>
-      <c r="C126" s="90"/>
-      <c r="D126" s="91"/>
+      <c r="B126" s="92"/>
+      <c r="C126" s="93"/>
+      <c r="D126" s="94"/>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:4">
       <c r="A127" s="4"/>
-      <c r="B127" s="89"/>
-      <c r="C127" s="90"/>
-      <c r="D127" s="91"/>
+      <c r="B127" s="92"/>
+      <c r="C127" s="93"/>
+      <c r="D127" s="94"/>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:4">
       <c r="A128" s="4"/>
-      <c r="B128" s="89"/>
-      <c r="C128" s="90"/>
-      <c r="D128" s="91"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="93"/>
+      <c r="D128" s="94"/>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:4">
       <c r="A129" s="4"/>
-      <c r="B129" s="89"/>
-      <c r="C129" s="90"/>
-      <c r="D129" s="91"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="93"/>
+      <c r="D129" s="94"/>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:4">
       <c r="A130" s="4"/>
-      <c r="B130" s="89"/>
-      <c r="C130" s="90"/>
-      <c r="D130" s="91"/>
+      <c r="B130" s="92"/>
+      <c r="C130" s="93"/>
+      <c r="D130" s="94"/>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:4">
       <c r="A131" s="4"/>
-      <c r="B131" s="89"/>
-      <c r="C131" s="90"/>
-      <c r="D131" s="91"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="93"/>
+      <c r="D131" s="94"/>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:4">
       <c r="A132" s="4"/>
-      <c r="B132" s="89"/>
-      <c r="C132" s="90"/>
-      <c r="D132" s="91"/>
+      <c r="B132" s="92"/>
+      <c r="C132" s="93"/>
+      <c r="D132" s="94"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:4">
       <c r="A133" s="4"/>
-      <c r="B133" s="89"/>
-      <c r="C133" s="90"/>
-      <c r="D133" s="91"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="93"/>
+      <c r="D133" s="94"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:4">
       <c r="A134" s="4"/>
-      <c r="B134" s="89"/>
-      <c r="C134" s="90"/>
-      <c r="D134" s="91"/>
+      <c r="B134" s="92"/>
+      <c r="C134" s="93"/>
+      <c r="D134" s="94"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:4">
       <c r="A135" s="4"/>
-      <c r="B135" s="89"/>
-      <c r="C135" s="90"/>
-      <c r="D135" s="91"/>
+      <c r="B135" s="92"/>
+      <c r="C135" s="93"/>
+      <c r="D135" s="94"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:4">
       <c r="A136" s="4"/>
-      <c r="B136" s="89"/>
-      <c r="C136" s="90"/>
-      <c r="D136" s="91"/>
+      <c r="B136" s="92"/>
+      <c r="C136" s="93"/>
+      <c r="D136" s="94"/>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:4">
       <c r="A137" s="4"/>
-      <c r="B137" s="89"/>
-      <c r="C137" s="90"/>
-      <c r="D137" s="91"/>
+      <c r="B137" s="92"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="94"/>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:4">
       <c r="A138" s="4"/>
-      <c r="B138" s="89"/>
-      <c r="C138" s="90"/>
-      <c r="D138" s="91"/>
+      <c r="B138" s="92"/>
+      <c r="C138" s="93"/>
+      <c r="D138" s="94"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:4">
       <c r="A139" s="4"/>
-      <c r="B139" s="89"/>
-      <c r="C139" s="90"/>
-      <c r="D139" s="91"/>
+      <c r="B139" s="92"/>
+      <c r="C139" s="93"/>
+      <c r="D139" s="94"/>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:4">
       <c r="A140" s="4"/>
-      <c r="B140" s="89"/>
-      <c r="C140" s="90"/>
-      <c r="D140" s="91"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="93"/>
+      <c r="D140" s="94"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:4">
       <c r="A141" s="4"/>
-      <c r="B141" s="89"/>
-      <c r="C141" s="90"/>
-      <c r="D141" s="91"/>
+      <c r="B141" s="92"/>
+      <c r="C141" s="93"/>
+      <c r="D141" s="94"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:4">
       <c r="A142" s="4"/>
-      <c r="B142" s="89"/>
-      <c r="C142" s="90"/>
-      <c r="D142" s="91"/>
+      <c r="B142" s="92"/>
+      <c r="C142" s="93"/>
+      <c r="D142" s="94"/>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:4">
       <c r="A143" s="4"/>
-      <c r="B143" s="89"/>
-      <c r="C143" s="90"/>
-      <c r="D143" s="91"/>
+      <c r="B143" s="92"/>
+      <c r="C143" s="93"/>
+      <c r="D143" s="94"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:4">
       <c r="A144" s="4"/>
-      <c r="B144" s="89"/>
-      <c r="C144" s="90"/>
-      <c r="D144" s="91"/>
+      <c r="B144" s="92"/>
+      <c r="C144" s="93"/>
+      <c r="D144" s="94"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:4">
       <c r="A145" s="4"/>
-      <c r="B145" s="89"/>
-      <c r="C145" s="90"/>
-      <c r="D145" s="91"/>
+      <c r="B145" s="92"/>
+      <c r="C145" s="93"/>
+      <c r="D145" s="94"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:4">
       <c r="A146" s="4"/>
-      <c r="B146" s="89"/>
-      <c r="C146" s="90"/>
-      <c r="D146" s="91"/>
+      <c r="B146" s="92"/>
+      <c r="C146" s="93"/>
+      <c r="D146" s="94"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:4">
       <c r="A147" s="4"/>
-      <c r="B147" s="89"/>
-      <c r="C147" s="90"/>
-      <c r="D147" s="91"/>
+      <c r="B147" s="92"/>
+      <c r="C147" s="93"/>
+      <c r="D147" s="94"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:4">
       <c r="A148" s="4"/>
-      <c r="B148" s="89"/>
-      <c r="C148" s="90"/>
-      <c r="D148" s="91"/>
+      <c r="B148" s="92"/>
+      <c r="C148" s="93"/>
+      <c r="D148" s="94"/>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:4">
       <c r="A149" s="4"/>
-      <c r="B149" s="89"/>
-      <c r="C149" s="90"/>
-      <c r="D149" s="91"/>
+      <c r="B149" s="92"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="94"/>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:4">
       <c r="A150" s="4"/>
-      <c r="B150" s="89"/>
-      <c r="C150" s="90"/>
-      <c r="D150" s="91"/>
+      <c r="B150" s="92"/>
+      <c r="C150" s="93"/>
+      <c r="D150" s="94"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:4">
       <c r="A151" s="4"/>
-      <c r="B151" s="89"/>
-      <c r="C151" s="90"/>
-      <c r="D151" s="91"/>
+      <c r="B151" s="92"/>
+      <c r="C151" s="93"/>
+      <c r="D151" s="94"/>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:4">
       <c r="A152" s="4"/>
-      <c r="B152" s="89"/>
-      <c r="C152" s="90"/>
-      <c r="D152" s="91"/>
+      <c r="B152" s="92"/>
+      <c r="C152" s="93"/>
+      <c r="D152" s="94"/>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:4">
       <c r="A153" s="4"/>
-      <c r="B153" s="89"/>
-      <c r="C153" s="90"/>
-      <c r="D153" s="91"/>
+      <c r="B153" s="92"/>
+      <c r="C153" s="93"/>
+      <c r="D153" s="94"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:4">
       <c r="A154" s="4"/>
-      <c r="B154" s="89"/>
-      <c r="C154" s="90"/>
-      <c r="D154" s="91"/>
+      <c r="B154" s="92"/>
+      <c r="C154" s="93"/>
+      <c r="D154" s="94"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:4">
       <c r="A155" s="4"/>
-      <c r="B155" s="89"/>
-      <c r="C155" s="90"/>
-      <c r="D155" s="91"/>
+      <c r="B155" s="92"/>
+      <c r="C155" s="93"/>
+      <c r="D155" s="94"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:4">
       <c r="A156" s="4"/>
-      <c r="B156" s="89"/>
-      <c r="C156" s="90"/>
-      <c r="D156" s="91"/>
+      <c r="B156" s="92"/>
+      <c r="C156" s="93"/>
+      <c r="D156" s="94"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:4">
       <c r="A157" s="4"/>
-      <c r="B157" s="89"/>
-      <c r="C157" s="90"/>
-      <c r="D157" s="91"/>
+      <c r="B157" s="92"/>
+      <c r="C157" s="93"/>
+      <c r="D157" s="94"/>
     </row>
     <row r="158" spans="2:4">
-      <c r="B158" s="92"/>
-      <c r="C158" s="93"/>
-      <c r="D158" s="94"/>
+      <c r="B158" s="95"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="97"/>
     </row>
     <row r="159" spans="2:4">
-      <c r="B159" s="92"/>
-      <c r="C159" s="93"/>
-      <c r="D159" s="94"/>
+      <c r="B159" s="95"/>
+      <c r="C159" s="96"/>
+      <c r="D159" s="97"/>
     </row>
     <row r="160" spans="2:4">
-      <c r="B160" s="92"/>
-      <c r="C160" s="93"/>
-      <c r="D160" s="94"/>
+      <c r="B160" s="95"/>
+      <c r="C160" s="96"/>
+      <c r="D160" s="97"/>
     </row>
     <row r="161" spans="2:4">
-      <c r="B161" s="92"/>
-      <c r="C161" s="93"/>
-      <c r="D161" s="94"/>
+      <c r="B161" s="95"/>
+      <c r="C161" s="96"/>
+      <c r="D161" s="97"/>
     </row>
     <row r="162" spans="2:4">
-      <c r="B162" s="92"/>
-      <c r="C162" s="93"/>
-      <c r="D162" s="94"/>
+      <c r="B162" s="95"/>
+      <c r="C162" s="96"/>
+      <c r="D162" s="97"/>
     </row>
     <row r="163" spans="2:4">
-      <c r="B163" s="92"/>
-      <c r="C163" s="93"/>
-      <c r="D163" s="94"/>
+      <c r="B163" s="95"/>
+      <c r="C163" s="96"/>
+      <c r="D163" s="97"/>
     </row>
     <row r="164" spans="2:4">
-      <c r="B164" s="92"/>
-      <c r="C164" s="93"/>
-      <c r="D164" s="94"/>
+      <c r="B164" s="95"/>
+      <c r="C164" s="96"/>
+      <c r="D164" s="97"/>
     </row>
     <row r="165" spans="2:4">
-      <c r="B165" s="92"/>
-      <c r="C165" s="93"/>
-      <c r="D165" s="94"/>
+      <c r="B165" s="95"/>
+      <c r="C165" s="96"/>
+      <c r="D165" s="97"/>
     </row>
     <row r="166" spans="2:4">
-      <c r="B166" s="92"/>
-      <c r="C166" s="93"/>
-      <c r="D166" s="94"/>
+      <c r="B166" s="95"/>
+      <c r="C166" s="96"/>
+      <c r="D166" s="97"/>
     </row>
     <row r="167" spans="2:4">
-      <c r="B167" s="92"/>
-      <c r="C167" s="93"/>
-      <c r="D167" s="94"/>
+      <c r="B167" s="95"/>
+      <c r="C167" s="96"/>
+      <c r="D167" s="97"/>
     </row>
     <row r="168" spans="2:4">
-      <c r="B168" s="92"/>
-      <c r="C168" s="93"/>
-      <c r="D168" s="94"/>
+      <c r="B168" s="95"/>
+      <c r="C168" s="96"/>
+      <c r="D168" s="97"/>
     </row>
     <row r="169" spans="2:4">
-      <c r="B169" s="92"/>
-      <c r="C169" s="93"/>
-      <c r="D169" s="94"/>
+      <c r="B169" s="95"/>
+      <c r="C169" s="96"/>
+      <c r="D169" s="97"/>
     </row>
     <row r="170" spans="2:4">
-      <c r="B170" s="92"/>
-      <c r="C170" s="93"/>
-      <c r="D170" s="94"/>
+      <c r="B170" s="95"/>
+      <c r="C170" s="96"/>
+      <c r="D170" s="97"/>
     </row>
     <row r="171" spans="2:4">
-      <c r="B171" s="92"/>
-      <c r="C171" s="93"/>
-      <c r="D171" s="94"/>
+      <c r="B171" s="95"/>
+      <c r="C171" s="96"/>
+      <c r="D171" s="97"/>
     </row>
     <row r="172" spans="2:4">
-      <c r="B172" s="92"/>
-      <c r="C172" s="93"/>
-      <c r="D172" s="94"/>
+      <c r="B172" s="95"/>
+      <c r="C172" s="96"/>
+      <c r="D172" s="97"/>
     </row>
     <row r="173" spans="2:4">
-      <c r="B173" s="92"/>
-      <c r="C173" s="93"/>
-      <c r="D173" s="94"/>
+      <c r="B173" s="95"/>
+      <c r="C173" s="96"/>
+      <c r="D173" s="97"/>
     </row>
     <row r="174" spans="2:4">
-      <c r="B174" s="92"/>
-      <c r="C174" s="93"/>
-      <c r="D174" s="94"/>
+      <c r="B174" s="95"/>
+      <c r="C174" s="96"/>
+      <c r="D174" s="97"/>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="92"/>
-      <c r="C175" s="93"/>
-      <c r="D175" s="94"/>
+      <c r="B175" s="95"/>
+      <c r="C175" s="96"/>
+      <c r="D175" s="97"/>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="92"/>
-      <c r="C176" s="93"/>
-      <c r="D176" s="94"/>
+      <c r="B176" s="95"/>
+      <c r="C176" s="96"/>
+      <c r="D176" s="97"/>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="92"/>
-      <c r="C177" s="93"/>
-      <c r="D177" s="94"/>
+      <c r="B177" s="95"/>
+      <c r="C177" s="96"/>
+      <c r="D177" s="97"/>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="92"/>
-      <c r="C178" s="93"/>
-      <c r="D178" s="94"/>
+      <c r="B178" s="95"/>
+      <c r="C178" s="96"/>
+      <c r="D178" s="97"/>
     </row>
     <row r="179" spans="2:4">
-      <c r="B179" s="92"/>
-      <c r="C179" s="93"/>
-      <c r="D179" s="94"/>
+      <c r="B179" s="95"/>
+      <c r="C179" s="96"/>
+      <c r="D179" s="97"/>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="92"/>
-      <c r="C180" s="93"/>
-      <c r="D180" s="94"/>
+      <c r="B180" s="95"/>
+      <c r="C180" s="96"/>
+      <c r="D180" s="97"/>
     </row>
     <row r="181" spans="2:4">
-      <c r="B181" s="92"/>
-      <c r="C181" s="93"/>
-      <c r="D181" s="94"/>
+      <c r="B181" s="95"/>
+      <c r="C181" s="96"/>
+      <c r="D181" s="97"/>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="92"/>
-      <c r="C182" s="93"/>
-      <c r="D182" s="94"/>
+      <c r="B182" s="95"/>
+      <c r="C182" s="96"/>
+      <c r="D182" s="97"/>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="92"/>
-      <c r="C183" s="93"/>
-      <c r="D183" s="94"/>
+      <c r="B183" s="95"/>
+      <c r="C183" s="96"/>
+      <c r="D183" s="97"/>
     </row>
     <row r="184" spans="2:4">
-      <c r="B184" s="92"/>
-      <c r="C184" s="93"/>
-      <c r="D184" s="94"/>
+      <c r="B184" s="95"/>
+      <c r="C184" s="96"/>
+      <c r="D184" s="97"/>
     </row>
     <row r="185" spans="2:4">
-      <c r="B185" s="92"/>
-      <c r="C185" s="93"/>
-      <c r="D185" s="94"/>
+      <c r="B185" s="95"/>
+      <c r="C185" s="96"/>
+      <c r="D185" s="97"/>
     </row>
     <row r="186" spans="2:4">
-      <c r="B186" s="92"/>
-      <c r="C186" s="93"/>
-      <c r="D186" s="94"/>
+      <c r="B186" s="95"/>
+      <c r="C186" s="96"/>
+      <c r="D186" s="97"/>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="92"/>
-      <c r="C187" s="93"/>
-      <c r="D187" s="94"/>
+      <c r="B187" s="95"/>
+      <c r="C187" s="96"/>
+      <c r="D187" s="97"/>
     </row>
     <row r="188" spans="2:4">
-      <c r="B188" s="92"/>
-      <c r="C188" s="93"/>
-      <c r="D188" s="94"/>
+      <c r="B188" s="95"/>
+      <c r="C188" s="96"/>
+      <c r="D188" s="97"/>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="92"/>
-      <c r="C189" s="93"/>
-      <c r="D189" s="94"/>
+      <c r="B189" s="95"/>
+      <c r="C189" s="96"/>
+      <c r="D189" s="97"/>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="92"/>
-      <c r="C190" s="93"/>
-      <c r="D190" s="94"/>
+      <c r="B190" s="95"/>
+      <c r="C190" s="96"/>
+      <c r="D190" s="97"/>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="92"/>
-      <c r="C191" s="93"/>
-      <c r="D191" s="94"/>
+      <c r="B191" s="95"/>
+      <c r="C191" s="96"/>
+      <c r="D191" s="97"/>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="92"/>
-      <c r="C192" s="93"/>
-      <c r="D192" s="94"/>
+      <c r="B192" s="95"/>
+      <c r="C192" s="96"/>
+      <c r="D192" s="97"/>
     </row>
     <row r="193" spans="2:4">
-      <c r="B193" s="92"/>
-      <c r="C193" s="93"/>
-      <c r="D193" s="94"/>
+      <c r="B193" s="95"/>
+      <c r="C193" s="96"/>
+      <c r="D193" s="97"/>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="92"/>
-      <c r="C194" s="93"/>
-      <c r="D194" s="94"/>
+      <c r="B194" s="95"/>
+      <c r="C194" s="96"/>
+      <c r="D194" s="97"/>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="92"/>
-      <c r="C195" s="93"/>
-      <c r="D195" s="94"/>
+      <c r="B195" s="95"/>
+      <c r="C195" s="96"/>
+      <c r="D195" s="97"/>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="92"/>
-      <c r="C196" s="93"/>
-      <c r="D196" s="94"/>
+      <c r="B196" s="95"/>
+      <c r="C196" s="96"/>
+      <c r="D196" s="97"/>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="92"/>
-      <c r="C197" s="93"/>
-      <c r="D197" s="94"/>
+      <c r="B197" s="95"/>
+      <c r="C197" s="96"/>
+      <c r="D197" s="97"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="92"/>
-      <c r="C198" s="93"/>
-      <c r="D198" s="94"/>
+      <c r="B198" s="95"/>
+      <c r="C198" s="96"/>
+      <c r="D198" s="97"/>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="92"/>
-      <c r="C199" s="93"/>
-      <c r="D199" s="94"/>
+      <c r="B199" s="95"/>
+      <c r="C199" s="96"/>
+      <c r="D199" s="97"/>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="92"/>
-      <c r="C200" s="93"/>
-      <c r="D200" s="94"/>
+      <c r="B200" s="95"/>
+      <c r="C200" s="96"/>
+      <c r="D200" s="97"/>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="92"/>
-      <c r="C201" s="93"/>
-      <c r="D201" s="94"/>
+      <c r="B201" s="95"/>
+      <c r="C201" s="96"/>
+      <c r="D201" s="97"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="92"/>
-      <c r="C202" s="93"/>
-      <c r="D202" s="94"/>
+      <c r="B202" s="95"/>
+      <c r="C202" s="96"/>
+      <c r="D202" s="97"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="92"/>
-      <c r="C203" s="93"/>
-      <c r="D203" s="94"/>
+      <c r="B203" s="95"/>
+      <c r="C203" s="96"/>
+      <c r="D203" s="97"/>
     </row>
     <row r="204" spans="2:4">
-      <c r="B204" s="92"/>
-      <c r="C204" s="93"/>
-      <c r="D204" s="94"/>
+      <c r="B204" s="95"/>
+      <c r="C204" s="96"/>
+      <c r="D204" s="97"/>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" s="92"/>
-      <c r="C205" s="93"/>
-      <c r="D205" s="94"/>
+      <c r="B205" s="95"/>
+      <c r="C205" s="96"/>
+      <c r="D205" s="97"/>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" s="92"/>
-      <c r="C206" s="93"/>
-      <c r="D206" s="94"/>
+      <c r="B206" s="95"/>
+      <c r="C206" s="96"/>
+      <c r="D206" s="97"/>
     </row>
     <row r="207" spans="2:4">
-      <c r="B207" s="92"/>
-      <c r="C207" s="93"/>
-      <c r="D207" s="94"/>
+      <c r="B207" s="95"/>
+      <c r="C207" s="96"/>
+      <c r="D207" s="97"/>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="92"/>
-      <c r="C208" s="93"/>
-      <c r="D208" s="94"/>
+      <c r="B208" s="95"/>
+      <c r="C208" s="96"/>
+      <c r="D208" s="97"/>
     </row>
     <row r="209" spans="2:4">
-      <c r="B209" s="92"/>
-      <c r="C209" s="93"/>
-      <c r="D209" s="94"/>
+      <c r="B209" s="95"/>
+      <c r="C209" s="96"/>
+      <c r="D209" s="97"/>
     </row>
     <row r="210" spans="2:4">
-      <c r="B210" s="92"/>
-      <c r="C210" s="93"/>
-      <c r="D210" s="94"/>
+      <c r="B210" s="95"/>
+      <c r="C210" s="96"/>
+      <c r="D210" s="97"/>
     </row>
     <row r="211" spans="2:4">
-      <c r="B211" s="92"/>
-      <c r="C211" s="93"/>
-      <c r="D211" s="94"/>
+      <c r="B211" s="95"/>
+      <c r="C211" s="96"/>
+      <c r="D211" s="97"/>
     </row>
     <row r="212" spans="2:4">
-      <c r="B212" s="92"/>
-      <c r="C212" s="93"/>
-      <c r="D212" s="94"/>
+      <c r="B212" s="95"/>
+      <c r="C212" s="96"/>
+      <c r="D212" s="97"/>
     </row>
     <row r="213" spans="2:4">
-      <c r="B213" s="92"/>
-      <c r="C213" s="93"/>
-      <c r="D213" s="94"/>
+      <c r="B213" s="95"/>
+      <c r="C213" s="96"/>
+      <c r="D213" s="97"/>
     </row>
     <row r="214" spans="2:4">
-      <c r="B214" s="92"/>
-      <c r="C214" s="93"/>
-      <c r="D214" s="94"/>
+      <c r="B214" s="95"/>
+      <c r="C214" s="96"/>
+      <c r="D214" s="97"/>
     </row>
     <row r="215" spans="2:4">
-      <c r="B215" s="92"/>
-      <c r="C215" s="93"/>
-      <c r="D215" s="94"/>
+      <c r="B215" s="95"/>
+      <c r="C215" s="96"/>
+      <c r="D215" s="97"/>
     </row>
     <row r="216" spans="2:4">
-      <c r="B216" s="92"/>
-      <c r="C216" s="93"/>
-      <c r="D216" s="94"/>
+      <c r="B216" s="95"/>
+      <c r="C216" s="96"/>
+      <c r="D216" s="97"/>
     </row>
     <row r="217" spans="2:4">
-      <c r="B217" s="92"/>
-      <c r="C217" s="93"/>
-      <c r="D217" s="94"/>
+      <c r="B217" s="95"/>
+      <c r="C217" s="96"/>
+      <c r="D217" s="97"/>
     </row>
     <row r="218" spans="2:4">
-      <c r="B218" s="92"/>
-      <c r="C218" s="93"/>
-      <c r="D218" s="94"/>
+      <c r="B218" s="95"/>
+      <c r="C218" s="96"/>
+      <c r="D218" s="97"/>
     </row>
     <row r="219" spans="2:4">
-      <c r="B219" s="92"/>
-      <c r="C219" s="93"/>
-      <c r="D219" s="94"/>
+      <c r="B219" s="95"/>
+      <c r="C219" s="96"/>
+      <c r="D219" s="97"/>
     </row>
     <row r="220" spans="2:4">
-      <c r="B220" s="92"/>
-      <c r="C220" s="93"/>
-      <c r="D220" s="94"/>
+      <c r="B220" s="95"/>
+      <c r="C220" s="96"/>
+      <c r="D220" s="97"/>
     </row>
     <row r="221" spans="2:4">
-      <c r="B221" s="92"/>
-      <c r="C221" s="93"/>
-      <c r="D221" s="94"/>
+      <c r="B221" s="95"/>
+      <c r="C221" s="96"/>
+      <c r="D221" s="97"/>
     </row>
     <row r="222" spans="2:4">
-      <c r="B222" s="92"/>
-      <c r="C222" s="93"/>
-      <c r="D222" s="94"/>
+      <c r="B222" s="95"/>
+      <c r="C222" s="96"/>
+      <c r="D222" s="97"/>
     </row>
     <row r="223" spans="2:4">
-      <c r="B223" s="92"/>
-      <c r="C223" s="93"/>
-      <c r="D223" s="94"/>
+      <c r="B223" s="95"/>
+      <c r="C223" s="96"/>
+      <c r="D223" s="97"/>
     </row>
     <row r="224" spans="2:4">
-      <c r="B224" s="92"/>
-      <c r="C224" s="93"/>
-      <c r="D224" s="94"/>
+      <c r="B224" s="95"/>
+      <c r="C224" s="96"/>
+      <c r="D224" s="97"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="92"/>
-      <c r="C225" s="93"/>
-      <c r="D225" s="94"/>
+      <c r="B225" s="95"/>
+      <c r="C225" s="96"/>
+      <c r="D225" s="97"/>
     </row>
     <row r="226" spans="2:4">
-      <c r="B226" s="92"/>
-      <c r="C226" s="93"/>
-      <c r="D226" s="94"/>
+      <c r="B226" s="95"/>
+      <c r="C226" s="96"/>
+      <c r="D226" s="97"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="92"/>
-      <c r="C227" s="93"/>
-      <c r="D227" s="94"/>
+      <c r="B227" s="95"/>
+      <c r="C227" s="96"/>
+      <c r="D227" s="97"/>
     </row>
     <row r="228" spans="2:4">
-      <c r="B228" s="92"/>
-      <c r="C228" s="93"/>
-      <c r="D228" s="94"/>
+      <c r="B228" s="95"/>
+      <c r="C228" s="96"/>
+      <c r="D228" s="97"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="92"/>
-      <c r="C229" s="93"/>
-      <c r="D229" s="94"/>
+      <c r="B229" s="95"/>
+      <c r="C229" s="96"/>
+      <c r="D229" s="97"/>
     </row>
     <row r="230" spans="2:4">
-      <c r="B230" s="92"/>
-      <c r="C230" s="93"/>
-      <c r="D230" s="94"/>
+      <c r="B230" s="95"/>
+      <c r="C230" s="96"/>
+      <c r="D230" s="97"/>
     </row>
     <row r="231" spans="2:4">
-      <c r="B231" s="92"/>
-      <c r="C231" s="93"/>
-      <c r="D231" s="94"/>
+      <c r="B231" s="95"/>
+      <c r="C231" s="96"/>
+      <c r="D231" s="97"/>
     </row>
     <row r="232" spans="2:4">
-      <c r="B232" s="92"/>
-      <c r="C232" s="93"/>
-      <c r="D232" s="94"/>
+      <c r="B232" s="95"/>
+      <c r="C232" s="96"/>
+      <c r="D232" s="97"/>
     </row>
     <row r="233" spans="2:4">
-      <c r="B233" s="92"/>
-      <c r="C233" s="93"/>
-      <c r="D233" s="94"/>
+      <c r="B233" s="95"/>
+      <c r="C233" s="96"/>
+      <c r="D233" s="97"/>
     </row>
     <row r="234" spans="2:4">
-      <c r="B234" s="92"/>
-      <c r="C234" s="93"/>
-      <c r="D234" s="94"/>
+      <c r="B234" s="95"/>
+      <c r="C234" s="96"/>
+      <c r="D234" s="97"/>
     </row>
     <row r="235" spans="2:4">
-      <c r="B235" s="92"/>
-      <c r="C235" s="93"/>
-      <c r="D235" s="94"/>
+      <c r="B235" s="95"/>
+      <c r="C235" s="96"/>
+      <c r="D235" s="97"/>
     </row>
     <row r="236" spans="2:4">
-      <c r="B236" s="92"/>
-      <c r="C236" s="93"/>
-      <c r="D236" s="94"/>
+      <c r="B236" s="95"/>
+      <c r="C236" s="96"/>
+      <c r="D236" s="97"/>
     </row>
     <row r="237" spans="2:4">
-      <c r="B237" s="92"/>
-      <c r="C237" s="93"/>
-      <c r="D237" s="94"/>
+      <c r="B237" s="95"/>
+      <c r="C237" s="96"/>
+      <c r="D237" s="97"/>
     </row>
     <row r="238" spans="2:4">
-      <c r="B238" s="92"/>
-      <c r="C238" s="93"/>
-      <c r="D238" s="94"/>
+      <c r="B238" s="95"/>
+      <c r="C238" s="96"/>
+      <c r="D238" s="97"/>
     </row>
     <row r="239" spans="2:4">
-      <c r="B239" s="92"/>
-      <c r="C239" s="93"/>
-      <c r="D239" s="94"/>
+      <c r="B239" s="95"/>
+      <c r="C239" s="96"/>
+      <c r="D239" s="97"/>
     </row>
     <row r="240" spans="2:4">
-      <c r="B240" s="92"/>
-      <c r="C240" s="93"/>
-      <c r="D240" s="94"/>
+      <c r="B240" s="95"/>
+      <c r="C240" s="96"/>
+      <c r="D240" s="97"/>
     </row>
     <row r="241" spans="2:4">
-      <c r="B241" s="92"/>
-      <c r="C241" s="93"/>
-      <c r="D241" s="94"/>
+      <c r="B241" s="95"/>
+      <c r="C241" s="96"/>
+      <c r="D241" s="97"/>
     </row>
     <row r="242" spans="2:4">
-      <c r="B242" s="92"/>
-      <c r="C242" s="93"/>
-      <c r="D242" s="94"/>
+      <c r="B242" s="95"/>
+      <c r="C242" s="96"/>
+      <c r="D242" s="97"/>
     </row>
     <row r="243" spans="2:4">
-      <c r="B243" s="92"/>
-      <c r="C243" s="93"/>
-      <c r="D243" s="94"/>
+      <c r="B243" s="95"/>
+      <c r="C243" s="96"/>
+      <c r="D243" s="97"/>
     </row>
     <row r="244" spans="2:4">
-      <c r="B244" s="92"/>
-      <c r="C244" s="93"/>
-      <c r="D244" s="94"/>
+      <c r="B244" s="95"/>
+      <c r="C244" s="96"/>
+      <c r="D244" s="97"/>
     </row>
     <row r="245" spans="2:4">
-      <c r="B245" s="92"/>
-      <c r="C245" s="93"/>
-      <c r="D245" s="94"/>
+      <c r="B245" s="95"/>
+      <c r="C245" s="96"/>
+      <c r="D245" s="97"/>
     </row>
     <row r="246" spans="2:4">
-      <c r="B246" s="92"/>
-      <c r="C246" s="93"/>
-      <c r="D246" s="94"/>
+      <c r="B246" s="95"/>
+      <c r="C246" s="96"/>
+      <c r="D246" s="97"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
